--- a/Project/Codes/WR_recent_pubs.xlsx
+++ b/Project/Codes/WR_recent_pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MKH\Documents\Documents\Science\Physics\UoB Physics\Y4\Massive Stars Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA819ABB-0EEA-49F0-BC8E-01A89E9B4EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCCF45E-E70F-4CF3-B1BA-A832F0FEDC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{6823C7EC-A845-4879-9A9B-839F9540D225}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="297">
   <si>
     <t>WR#</t>
   </si>
@@ -909,6 +909,36 @@
   </si>
   <si>
     <t>binary</t>
+  </si>
+  <si>
+    <t>Crowther et al. (1995)</t>
+  </si>
+  <si>
+    <t>WR+O binary (?)</t>
+  </si>
+  <si>
+    <t>Pradhan et al. (2021)</t>
+  </si>
+  <si>
+    <t>colliding winds (X-ray)</t>
+  </si>
+  <si>
+    <t>Thomas, J. D. et al. (2021)</t>
+  </si>
+  <si>
+    <t>Bednarek, W. (2021), Squicciarini, V. et al. (2021)</t>
+  </si>
+  <si>
+    <t>Williams (2019), Naze et al. (2020)</t>
+  </si>
+  <si>
+    <t>Sen, K. et al. (2021), Williams (2019), Naze et al. (2020)</t>
+  </si>
+  <si>
+    <t>Naze et al. (2020)</t>
+  </si>
+  <si>
+    <t>Naze et al. (2020), Rauw, G. (1996)</t>
   </si>
 </sst>
 </file>
@@ -932,7 +962,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +987,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -970,13 +1006,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,7 +1333,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A32" sqref="A32"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1348,7 +1385,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1383,7 +1420,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1463,14 +1500,14 @@
         <v>262</v>
       </c>
       <c r="L5" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1566,7 +1603,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1593,6 +1630,9 @@
       <c r="K9" t="s">
         <v>262</v>
       </c>
+      <c r="L9" s="5" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
@@ -1624,6 +1664,12 @@
       </c>
       <c r="K10" t="s">
         <v>262</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1683,6 +1729,9 @@
       <c r="K12" t="s">
         <v>264</v>
       </c>
+      <c r="L12" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
@@ -1712,6 +1761,9 @@
       <c r="K13" t="s">
         <v>262</v>
       </c>
+      <c r="L13" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
@@ -1742,7 +1794,7 @@
         <v>262</v>
       </c>
       <c r="L14" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M14" t="s">
         <v>279</v>
@@ -1880,6 +1932,9 @@
       <c r="K19" t="s">
         <v>265</v>
       </c>
+      <c r="L19" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
@@ -2017,6 +2072,12 @@
       <c r="K23" t="s">
         <v>262</v>
       </c>
+      <c r="L23" t="s">
+        <v>289</v>
+      </c>
+      <c r="M23" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
@@ -2043,9 +2104,12 @@
       <c r="K24" t="s">
         <v>266</v>
       </c>
+      <c r="L24" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
@@ -2065,7 +2129,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
@@ -2141,6 +2205,9 @@
       <c r="K28" t="s">
         <v>262</v>
       </c>
+      <c r="L28" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
@@ -2576,6 +2643,9 @@
       <c r="K43" t="s">
         <v>262</v>
       </c>
+      <c r="L43" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
@@ -2920,7 +2990,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
+      <c r="A56" s="6">
         <v>92</v>
       </c>
       <c r="B56" t="s">
@@ -2999,6 +3069,9 @@
       <c r="K58" t="s">
         <v>262</v>
       </c>
+      <c r="L58" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
@@ -3028,6 +3101,9 @@
       <c r="K59" t="s">
         <v>262</v>
       </c>
+      <c r="L59" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
@@ -3055,14 +3131,14 @@
         <v>262</v>
       </c>
       <c r="L60" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M60" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
+      <c r="A61" s="6">
         <v>124</v>
       </c>
       <c r="B61" t="s">
@@ -3088,7 +3164,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
+      <c r="A62" s="6">
         <v>127</v>
       </c>
       <c r="B62" t="s">
@@ -3115,9 +3191,12 @@
       <c r="K62" t="s">
         <v>262</v>
       </c>
+      <c r="L62" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
+      <c r="A63" s="6">
         <v>128</v>
       </c>
       <c r="B63" t="s">
@@ -3140,6 +3219,9 @@
       </c>
       <c r="K63" t="s">
         <v>262</v>
+      </c>
+      <c r="L63" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3172,7 +3254,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
+      <c r="A65" s="6">
         <v>134</v>
       </c>
       <c r="B65" t="s">
@@ -3201,7 +3283,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
+      <c r="A66" s="6">
         <v>135</v>
       </c>
       <c r="B66" t="s">
@@ -3233,7 +3315,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
+      <c r="A67" s="6">
         <v>136</v>
       </c>
       <c r="B67" t="s">
@@ -3262,7 +3344,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
+      <c r="A68" s="6">
         <v>137</v>
       </c>
       <c r="B68" t="s">
@@ -3294,7 +3376,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
+      <c r="A69" s="6">
         <v>138</v>
       </c>
       <c r="B69" t="s">
@@ -3355,7 +3437,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
+      <c r="A71" s="6">
         <v>140</v>
       </c>
       <c r="B71" t="s">
@@ -3378,6 +3460,9 @@
       </c>
       <c r="K71" t="s">
         <v>262</v>
+      </c>
+      <c r="L71" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3410,7 +3495,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
+      <c r="A73" s="6">
         <v>143</v>
       </c>
       <c r="B73" t="s">
@@ -3492,6 +3577,9 @@
       <c r="K75" t="s">
         <v>262</v>
       </c>
+      <c r="L75" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
@@ -3523,7 +3611,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
+      <c r="A77" s="6">
         <v>157</v>
       </c>
       <c r="B77" t="s">
@@ -3552,7 +3640,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
+      <c r="A78" s="6">
         <v>158</v>
       </c>
       <c r="B78" t="s">
@@ -3578,7 +3666,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
+      <c r="A79" s="6">
         <v>159</v>
       </c>
       <c r="B79" t="s">
